--- a/src/data/xlsx/list_INVALID_REGISTRATION_KZ_ALL.xlsx
+++ b/src/data/xlsx/list_INVALID_REGISTRATION_KZ_ALL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14744" uniqueCount="10332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14768" uniqueCount="10350">
   <si>
     <t>___ жылғы жағдай бойынша тіркеуі жарамсыз деп танылған салық төлеушілер туралы ақпарат / Информация о налогоплательщиках, регистрация которых признана недействительной по состоянию на ___ года</t>
   </si>
@@ -66,7 +66,7 @@
 Дата решения суда</t>
   </si>
   <si>
-    <t>2018.06.21 жылғы жағдай бойынша тіркеуі жарамсыз деп танылған салық төлеушілер туралы ақпарат / Информация о налогоплательщиках, регистрация которых признана недействительной по состоянию на 2018.06.21 года</t>
+    <t>2018.06.24 жылғы жағдай бойынша тіркеуі жарамсыз деп танылған салық төлеушілер туралы ақпарат / Информация о налогоплательщиках, регистрация которых признана недействительной по состоянию на 2018.06.24 года</t>
   </si>
   <si>
     <t>000240013048</t>
@@ -6351,7 +6351,7 @@
     <t>780527303090</t>
   </si>
   <si>
-    <t>РЕШЕНИЕМ СМЭС ОТ 12.11.13 №2-3656-13</t>
+    <t>решение СМЭС от 12.11.13 № 2-3656-13</t>
   </si>
   <si>
     <t>081240010050</t>
@@ -6762,7 +6762,7 @@
     <t>620921301460</t>
   </si>
   <si>
-    <t>Решение СМЭС от 22.05.2013 №2-4267/013</t>
+    <t>Решение СМЭС от 22.05.2013 №2-4267/13</t>
   </si>
   <si>
     <t>090240014141</t>
@@ -9726,7 +9726,7 @@
     <t>860702302813</t>
   </si>
   <si>
-    <t>решение СМЭС г.Алматы от 08.07.2016</t>
+    <t>решение СМЭС г.Алматы от 08.07.2016г</t>
   </si>
   <si>
     <t>100940011672</t>
@@ -16827,7 +16827,7 @@
     <t>890123350326</t>
   </si>
   <si>
-    <t>Решение СМЭС № 7119-16-00-2/14038 от 28.12.2016</t>
+    <t>Решение СМЭС г. Астана от 03.11.2015 №02-11926-15</t>
   </si>
   <si>
     <t>131240006669</t>
@@ -25689,7 +25689,7 @@
     <t>790802300419</t>
   </si>
   <si>
-    <t>решение СМЭС по ВКО от 20.08.2013г № 2-2814</t>
+    <t>решение суда №2-2814 от 20.08.2013</t>
   </si>
   <si>
     <t>120740012726</t>
@@ -31024,6 +31024,60 @@
   </si>
   <si>
     <t>1110-18-00-2/3149</t>
+  </si>
+  <si>
+    <t>140640002808</t>
+  </si>
+  <si>
+    <t>582400050380</t>
+  </si>
+  <si>
+    <t>Товарищество с ограниченной ответственностью "Шымкентстройконцерн"</t>
+  </si>
+  <si>
+    <t>БЕКАРЫС МЫРЗАМДАМОВ ТАСТЕМИРОВИЧ</t>
+  </si>
+  <si>
+    <t>830920300728</t>
+  </si>
+  <si>
+    <t>№5165-18-00-2/938</t>
+  </si>
+  <si>
+    <t>020340000300</t>
+  </si>
+  <si>
+    <t>600400502262</t>
+  </si>
+  <si>
+    <t>Товарищество с ограниченной ответственностью "Стройтехмонтаж-М"</t>
+  </si>
+  <si>
+    <t>ДАУРЕНБЕК КАЛТАЕВ ЕРТАЕВИЧ</t>
+  </si>
+  <si>
+    <t>630415300740</t>
+  </si>
+  <si>
+    <t>№5165-18-00-2/936</t>
+  </si>
+  <si>
+    <t>110140001437</t>
+  </si>
+  <si>
+    <t>582300008749</t>
+  </si>
+  <si>
+    <t>Товарищество с ограниченной ответственностью "Гранд Голд"</t>
+  </si>
+  <si>
+    <t>РУСЛАН БЕКЖАНОВ СЕИТОВИЧ</t>
+  </si>
+  <si>
+    <t>840915301532</t>
+  </si>
+  <si>
+    <t>№5165-18-00-2/928</t>
   </si>
 </sst>
 </file>
@@ -86851,6 +86905,102 @@
         <v>43215.0</v>
       </c>
     </row>
+    <row r="1943">
+      <c r="A1943" t="n">
+        <v>1940.0</v>
+      </c>
+      <c r="B1943" t="s">
+        <v>10332</v>
+      </c>
+      <c r="C1943" t="s">
+        <v>10333</v>
+      </c>
+      <c r="D1943" t="s">
+        <v>10334</v>
+      </c>
+      <c r="E1943" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1943" t="s">
+        <v>10335</v>
+      </c>
+      <c r="G1943" t="s">
+        <v>10336</v>
+      </c>
+      <c r="H1943" t="s">
+        <v>10333</v>
+      </c>
+      <c r="I1943" t="s">
+        <v>10337</v>
+      </c>
+      <c r="J1943" t="n" s="9">
+        <v>43188.0</v>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" t="n">
+        <v>1941.0</v>
+      </c>
+      <c r="B1944" t="s">
+        <v>10338</v>
+      </c>
+      <c r="C1944" t="s">
+        <v>10339</v>
+      </c>
+      <c r="D1944" t="s">
+        <v>10340</v>
+      </c>
+      <c r="E1944" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1944" t="s">
+        <v>10341</v>
+      </c>
+      <c r="G1944" t="s">
+        <v>10342</v>
+      </c>
+      <c r="H1944" t="s">
+        <v>10339</v>
+      </c>
+      <c r="I1944" t="s">
+        <v>10343</v>
+      </c>
+      <c r="J1944" t="n" s="9">
+        <v>43188.0</v>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="n">
+        <v>1942.0</v>
+      </c>
+      <c r="B1945" t="s">
+        <v>10344</v>
+      </c>
+      <c r="C1945" t="s">
+        <v>10345</v>
+      </c>
+      <c r="D1945" t="s">
+        <v>10346</v>
+      </c>
+      <c r="E1945" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1945" t="s">
+        <v>10347</v>
+      </c>
+      <c r="G1945" t="s">
+        <v>10348</v>
+      </c>
+      <c r="H1945" t="s">
+        <v>10345</v>
+      </c>
+      <c r="I1945" t="s">
+        <v>10349</v>
+      </c>
+      <c r="J1945" t="n" s="9">
+        <v>43208.0</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <autoFilter ref="A3:J3"/>
